--- a/biology/Écologie/Institut_des_sciences_analytiques_et_de_physico-chimie_pour_l'environnement_et_les_matériaux/Institut_des_sciences_analytiques_et_de_physico-chimie_pour_l'environnement_et_les_matériaux.xlsx
+++ b/biology/Écologie/Institut_des_sciences_analytiques_et_de_physico-chimie_pour_l'environnement_et_les_matériaux/Institut_des_sciences_analytiques_et_de_physico-chimie_pour_l'environnement_et_les_matériaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_des_sciences_analytiques_et_de_physico-chimie_pour_l%27environnement_et_les_mat%C3%A9riaux</t>
+          <t>Institut_des_sciences_analytiques_et_de_physico-chimie_pour_l'environnement_et_les_matériaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Institut des sciences analytiques et de physico-chimie pour l'environnement et les matériaux (IPREM[1]) est un laboratoire de recherche situé dans la technopôle Hélioparc, à 500 m du campus de l'université de Pau et des pays de l'Adour[2]. Le cofondateur est Ahmed Allal [3].
-Construit en 2006-2007, situé rue du Président Pierre Angot à Pau[4], l'IPREM est inauguré en février 2012[5],[6]. Des travaux d'agrandissement, avec la construction d'un « IPREM 2 », sont entamés en 2020[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut des sciences analytiques et de physico-chimie pour l'environnement et les matériaux (IPREM) est un laboratoire de recherche situé dans la technopôle Hélioparc, à 500 m du campus de l'université de Pau et des pays de l'Adour. Le cofondateur est Ahmed Allal .
+Construit en 2006-2007, situé rue du Président Pierre Angot à Pau, l'IPREM est inauguré en février 2012,. Des travaux d'agrandissement, avec la construction d'un « IPREM 2 », sont entamés en 2020.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_des_sciences_analytiques_et_de_physico-chimie_pour_l%27environnement_et_les_mat%C3%A9riaux</t>
+          <t>Institut_des_sciences_analytiques_et_de_physico-chimie_pour_l'environnement_et_les_matériaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Axes de recherches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre équipes composent l'IPREM :
-équipe Chimie physique (ECP) [8] ;
+équipe Chimie physique (ECP)  ;
 équipe Physico-chimie des polymères (EPCP) ;
 équipe Environnement et Microbiologie (EEM) ;
 laboratoire de chimie analytique bio-inorganique et environnement (LCABIE).
-Laurent Billon[9], au sein de l'IPREM pilote le projet européen eSCALED[10],[11] dont le but est d'avancer vers de nouvelles sources d'énergie en particulier la feuille artificielle[12],[13].
+Laurent Billon, au sein de l'IPREM pilote le projet européen eSCALED, dont le but est d'avancer vers de nouvelles sources d'énergie en particulier la feuille artificielle,.
 </t>
         </is>
       </c>
